--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Prefabs/UI/Effect/UIEffect.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/FuncPopup/UIFuncPopup.prefab</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1267,6 +1270,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="26" spans="3:5">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Prefabs/UI/FuncPopup/UIFuncPopup.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/Recover/UIRecover.prefab</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1236,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1250,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -1264,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1278,10 +1281,24 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="3:5">

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Prefabs/UI/Recover/UIRecover.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/EnterInfo/UIEnterInfo.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/WithdrawalChannel/UIWithdrawalChannel.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/Task/UITask.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/Setting/UISetting.prefab</t>
   </si>
 </sst>
 </file>
@@ -1301,6 +1313,62 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="2:5">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="26" spans="3:5">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Prefabs/UI/Setting/UISetting.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/LuckMoment/UILuckMoment.prefab</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1101,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1369,6 +1372,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="26" spans="3:5">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -114,6 +114,33 @@
   </si>
   <si>
     <t>Prefabs/UI/LuckMoment/UILuckMoment.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/WithdrawalInformation/UIWithdrawalInformation.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/WithdrawableSingle/UIWithdrawableSingle.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/WithdrawableMultiple/UIWithdrawableMultiple.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/Rate/UIRate.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/Awesome/UIAwesome.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/UserLevel/UIUserLevel.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/GamePlayNotice/UIGamePlayNotice.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/ChallengeSuccessful/UIChallengeSuccessful.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/ChallengeFailed/UIChallengeFailed.prefab</t>
   </si>
 </sst>
 </file>
@@ -831,13 +858,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,7 +1121,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1109,7 +1129,7 @@
     <col min="1" max="1" width="16.45" customWidth="1"/>
     <col min="2" max="3" width="19.2666666666667" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="57.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="66.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1386,20 +1406,131 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>36</v>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>37</v>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Prefabs/UI/ChallengeFailed/UIChallengeFailed.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/Congratfulations/UICongratfulations.prefab</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1532,6 +1535,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Prefabs/UI/Congratfulations/UICongratfulations.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/WithdrawableWaitCheck/UIWithdrawableWaitCheck.prefab</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1549,6 +1552,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -146,7 +146,7 @@
     <t>Prefabs/UI/Congratfulations/UICongratfulations.prefab</t>
   </si>
   <si>
-    <t>Prefabs/UI/WithdrawableWaitCheck/UIWithdrawableWaitCheck.prefab</t>
+    <t>Prefabs/UI/WithdrawalSuccessful/UIWithdrawalSuccessful.prefab</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="ui配置|UIRes" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Prefabs/UI/WithdrawalSuccessful/UIWithdrawalSuccessful.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/UIGamePlayBy/UIGamePlayBy.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/UIDailyTasks/UIDailyTasks.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/UIChallengeTask/UIChallengeTask.prefab</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1566,6 +1575,48 @@
         <v>39</v>
       </c>
     </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E21:E22"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>

--- a/DesignerConfigs/Datas/UIRes.xlsx
+++ b/DesignerConfigs/Datas/UIRes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Prefabs/UI/UIChallengeTask/UIChallengeTask.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/UIWithdrawalSure/UIWithdrawalSure.prefab</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1617,6 +1620,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
